--- a/public/Calc_dzo.xlsx
+++ b/public/Calc_dzo.xlsx
@@ -72,9 +72,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -355,11 +356,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX120"/>
+  <dimension ref="A1:BD120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="AU1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,9 +407,12 @@
     <col min="48" max="48" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="56" width="17" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,8 +554,26 @@
       <c r="AX1">
         <v>1538.0000001999999</v>
       </c>
+      <c r="AY1">
+        <v>28</v>
+      </c>
+      <c r="AZ1">
+        <v>450</v>
+      </c>
+      <c r="BA1" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB1" s="2">
+        <v>58.16</v>
+      </c>
+      <c r="BC1" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD1" s="2">
+        <v>378.71</v>
+      </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,8 +715,26 @@
       <c r="AX2">
         <v>1538.0000001999999</v>
       </c>
+      <c r="AY2">
+        <v>28</v>
+      </c>
+      <c r="AZ2">
+        <v>450</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB2" s="2">
+        <v>50.52</v>
+      </c>
+      <c r="BC2" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD2" s="2">
+        <v>377.73</v>
+      </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,8 +876,26 @@
       <c r="AX3">
         <v>1538.0000001999999</v>
       </c>
+      <c r="AY3">
+        <v>28</v>
+      </c>
+      <c r="AZ3">
+        <v>450</v>
+      </c>
+      <c r="BA3" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB3" s="2">
+        <v>22.74</v>
+      </c>
+      <c r="BC3" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD3" s="2">
+        <v>412.25</v>
+      </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -979,8 +1037,26 @@
       <c r="AX4">
         <v>1538.0000001999999</v>
       </c>
+      <c r="AY4">
+        <v>28</v>
+      </c>
+      <c r="AZ4">
+        <v>450</v>
+      </c>
+      <c r="BA4" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB4" s="2">
+        <v>25.27</v>
+      </c>
+      <c r="BC4" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD4" s="2">
+        <v>433.79</v>
+      </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1122,8 +1198,26 @@
       <c r="AX5">
         <v>1538.0000001999999</v>
       </c>
+      <c r="AY5">
+        <v>28</v>
+      </c>
+      <c r="AZ5">
+        <v>450</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB5" s="2">
+        <v>35.33</v>
+      </c>
+      <c r="BC5" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD5" s="2">
+        <v>418.09</v>
+      </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1265,8 +1359,26 @@
       <c r="AX6">
         <v>1538.0000001999999</v>
       </c>
+      <c r="AY6">
+        <v>28</v>
+      </c>
+      <c r="AZ6">
+        <v>450</v>
+      </c>
+      <c r="BA6" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB6" s="2">
+        <v>41.15</v>
+      </c>
+      <c r="BC6" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD6" s="2">
+        <v>402.44</v>
+      </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1408,8 +1520,26 @@
       <c r="AX7">
         <v>1538.0000001999999</v>
       </c>
+      <c r="AY7">
+        <v>28</v>
+      </c>
+      <c r="AZ7">
+        <v>450</v>
+      </c>
+      <c r="BA7" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB7" s="2">
+        <v>43.3</v>
+      </c>
+      <c r="BC7" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD7" s="2">
+        <v>411.35</v>
+      </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1551,8 +1681,26 @@
       <c r="AX8">
         <v>1538.0000001999999</v>
       </c>
+      <c r="AY8">
+        <v>28</v>
+      </c>
+      <c r="AZ8">
+        <v>450</v>
+      </c>
+      <c r="BA8" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB8" s="2">
+        <v>45.28</v>
+      </c>
+      <c r="BC8" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD8" s="2">
+        <v>418.55</v>
+      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1694,8 +1842,26 @@
       <c r="AX9">
         <v>1538.0000001999999</v>
       </c>
+      <c r="AY9">
+        <v>28</v>
+      </c>
+      <c r="AZ9">
+        <v>450</v>
+      </c>
+      <c r="BA9" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB9" s="2">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="BC9" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD9" s="2">
+        <v>423.86</v>
+      </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1837,8 +2003,26 @@
       <c r="AX10">
         <v>1538.0000001999999</v>
       </c>
+      <c r="AY10">
+        <v>28</v>
+      </c>
+      <c r="AZ10">
+        <v>450</v>
+      </c>
+      <c r="BA10" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB10" s="2">
+        <v>37.46</v>
+      </c>
+      <c r="BC10" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD10" s="2">
+        <v>429.16</v>
+      </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1911,8 +2095,20 @@
       <c r="AX11">
         <v>1538.0000001999999</v>
       </c>
+      <c r="AY11">
+        <v>28</v>
+      </c>
+      <c r="AZ11">
+        <v>450</v>
+      </c>
+      <c r="BB11" s="2">
+        <v>61.89</v>
+      </c>
+      <c r="BD11" s="2">
+        <v>378.13</v>
+      </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1985,8 +2181,20 @@
       <c r="AX12">
         <v>1538.0000001999999</v>
       </c>
+      <c r="AY12">
+        <v>28</v>
+      </c>
+      <c r="AZ12">
+        <v>450</v>
+      </c>
+      <c r="BB12" s="2">
+        <v>66.03</v>
+      </c>
+      <c r="BD12" s="2">
+        <v>377.43</v>
+      </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -2059,8 +2267,20 @@
       <c r="AX13">
         <v>1538.0000001999999</v>
       </c>
+      <c r="AY13">
+        <v>28</v>
+      </c>
+      <c r="AZ13">
+        <v>450</v>
+      </c>
+      <c r="BB13" s="2">
+        <v>68.39</v>
+      </c>
+      <c r="BD13" s="2">
+        <v>377.64</v>
+      </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -2133,8 +2353,20 @@
       <c r="AX14">
         <v>1538.0000001999999</v>
       </c>
+      <c r="AY14">
+        <v>28</v>
+      </c>
+      <c r="AZ14">
+        <v>450</v>
+      </c>
+      <c r="BB14" s="2">
+        <v>72.8</v>
+      </c>
+      <c r="BD14" s="2">
+        <v>379.42</v>
+      </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -2207,8 +2439,20 @@
       <c r="AX15">
         <v>1538.0000001999999</v>
       </c>
+      <c r="AY15">
+        <v>28</v>
+      </c>
+      <c r="AZ15">
+        <v>450</v>
+      </c>
+      <c r="BB15" s="2">
+        <v>64.489999999999995</v>
+      </c>
+      <c r="BD15" s="2">
+        <v>379.98</v>
+      </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2281,8 +2525,20 @@
       <c r="AX16">
         <v>1538.0000001999999</v>
       </c>
+      <c r="AY16">
+        <v>28</v>
+      </c>
+      <c r="AZ16">
+        <v>450</v>
+      </c>
+      <c r="BB16" s="2">
+        <v>66.55</v>
+      </c>
+      <c r="BD16" s="2">
+        <v>382.26</v>
+      </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -2355,8 +2611,20 @@
       <c r="AX17">
         <v>1538.0000001999999</v>
       </c>
+      <c r="AY17">
+        <v>28</v>
+      </c>
+      <c r="AZ17">
+        <v>450</v>
+      </c>
+      <c r="BB17" s="2">
+        <v>65.17</v>
+      </c>
+      <c r="BD17" s="2">
+        <v>383.66</v>
+      </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -2429,8 +2697,20 @@
       <c r="AX18">
         <v>1538.0000001999999</v>
       </c>
+      <c r="AY18">
+        <v>28</v>
+      </c>
+      <c r="AZ18">
+        <v>450</v>
+      </c>
+      <c r="BB18" s="2">
+        <v>60.43</v>
+      </c>
+      <c r="BD18" s="2">
+        <v>386.67</v>
+      </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -2503,8 +2783,20 @@
       <c r="AX19">
         <v>1538.0000001999999</v>
       </c>
+      <c r="AY19">
+        <v>28</v>
+      </c>
+      <c r="AZ19">
+        <v>450</v>
+      </c>
+      <c r="BB19" s="2">
+        <v>60.78</v>
+      </c>
+      <c r="BD19" s="2">
+        <v>386.99</v>
+      </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -2577,8 +2869,20 @@
       <c r="AX20">
         <v>1538.0000001999999</v>
       </c>
+      <c r="AY20">
+        <v>28</v>
+      </c>
+      <c r="AZ20">
+        <v>450</v>
+      </c>
+      <c r="BB20" s="2">
+        <v>60.23</v>
+      </c>
+      <c r="BD20" s="2">
+        <v>389.19</v>
+      </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -2720,8 +3024,26 @@
       <c r="AX21">
         <v>588.42399999999998</v>
       </c>
+      <c r="AY21">
+        <v>28</v>
+      </c>
+      <c r="AZ21">
+        <v>450</v>
+      </c>
+      <c r="BA21" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB21" s="2">
+        <v>58.16</v>
+      </c>
+      <c r="BC21" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD21" s="2">
+        <v>378.71</v>
+      </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -2863,8 +3185,26 @@
       <c r="AX22">
         <v>588.42399999999998</v>
       </c>
+      <c r="AY22">
+        <v>28</v>
+      </c>
+      <c r="AZ22">
+        <v>450</v>
+      </c>
+      <c r="BA22" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB22" s="2">
+        <v>50.52</v>
+      </c>
+      <c r="BC22" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD22" s="2">
+        <v>377.73</v>
+      </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -3006,8 +3346,26 @@
       <c r="AX23">
         <v>588.42399999999998</v>
       </c>
+      <c r="AY23">
+        <v>28</v>
+      </c>
+      <c r="AZ23">
+        <v>450</v>
+      </c>
+      <c r="BA23" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB23" s="2">
+        <v>22.74</v>
+      </c>
+      <c r="BC23" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD23" s="2">
+        <v>412.25</v>
+      </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -3149,8 +3507,26 @@
       <c r="AX24">
         <v>588.42399999999998</v>
       </c>
+      <c r="AY24">
+        <v>28</v>
+      </c>
+      <c r="AZ24">
+        <v>450</v>
+      </c>
+      <c r="BA24" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB24" s="2">
+        <v>25.27</v>
+      </c>
+      <c r="BC24" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD24" s="2">
+        <v>433.79</v>
+      </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -3292,8 +3668,26 @@
       <c r="AX25">
         <v>588.42399999999998</v>
       </c>
+      <c r="AY25">
+        <v>28</v>
+      </c>
+      <c r="AZ25">
+        <v>450</v>
+      </c>
+      <c r="BA25" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB25" s="2">
+        <v>35.33</v>
+      </c>
+      <c r="BC25" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD25" s="2">
+        <v>418.09</v>
+      </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -3435,8 +3829,26 @@
       <c r="AX26">
         <v>588.42399999999998</v>
       </c>
+      <c r="AY26">
+        <v>28</v>
+      </c>
+      <c r="AZ26">
+        <v>450</v>
+      </c>
+      <c r="BA26" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB26" s="2">
+        <v>41.15</v>
+      </c>
+      <c r="BC26" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD26" s="2">
+        <v>402.44</v>
+      </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -3578,8 +3990,26 @@
       <c r="AX27">
         <v>588.42399999999998</v>
       </c>
+      <c r="AY27">
+        <v>28</v>
+      </c>
+      <c r="AZ27">
+        <v>450</v>
+      </c>
+      <c r="BA27" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB27" s="2">
+        <v>43.3</v>
+      </c>
+      <c r="BC27" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD27" s="2">
+        <v>411.35</v>
+      </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -3721,8 +4151,26 @@
       <c r="AX28">
         <v>588.42399999999998</v>
       </c>
+      <c r="AY28">
+        <v>28</v>
+      </c>
+      <c r="AZ28">
+        <v>450</v>
+      </c>
+      <c r="BA28" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB28" s="2">
+        <v>45.28</v>
+      </c>
+      <c r="BC28" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD28" s="2">
+        <v>418.55</v>
+      </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -3864,8 +4312,26 @@
       <c r="AX29">
         <v>588.42399999999998</v>
       </c>
+      <c r="AY29">
+        <v>28</v>
+      </c>
+      <c r="AZ29">
+        <v>450</v>
+      </c>
+      <c r="BA29" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB29" s="2">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="BC29" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD29" s="2">
+        <v>423.86</v>
+      </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -4007,8 +4473,26 @@
       <c r="AX30">
         <v>588.42399999999998</v>
       </c>
+      <c r="AY30">
+        <v>28</v>
+      </c>
+      <c r="AZ30">
+        <v>450</v>
+      </c>
+      <c r="BA30" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB30" s="2">
+        <v>37.46</v>
+      </c>
+      <c r="BC30" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD30" s="2">
+        <v>429.16</v>
+      </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -4102,8 +4586,20 @@
       <c r="AX31">
         <v>588.42399999999998</v>
       </c>
+      <c r="AY31">
+        <v>28</v>
+      </c>
+      <c r="AZ31">
+        <v>450</v>
+      </c>
+      <c r="BB31" s="2">
+        <v>61.89</v>
+      </c>
+      <c r="BD31" s="2">
+        <v>378.13</v>
+      </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -4197,8 +4693,20 @@
       <c r="AX32">
         <v>588.42399999999998</v>
       </c>
+      <c r="AY32">
+        <v>28</v>
+      </c>
+      <c r="AZ32">
+        <v>450</v>
+      </c>
+      <c r="BB32" s="2">
+        <v>66.03</v>
+      </c>
+      <c r="BD32" s="2">
+        <v>377.43</v>
+      </c>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -4292,8 +4800,20 @@
       <c r="AX33">
         <v>588.42399999999998</v>
       </c>
+      <c r="AY33">
+        <v>28</v>
+      </c>
+      <c r="AZ33">
+        <v>450</v>
+      </c>
+      <c r="BB33" s="2">
+        <v>68.39</v>
+      </c>
+      <c r="BD33" s="2">
+        <v>377.64</v>
+      </c>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -4387,8 +4907,20 @@
       <c r="AX34">
         <v>588.42399999999998</v>
       </c>
+      <c r="AY34">
+        <v>28</v>
+      </c>
+      <c r="AZ34">
+        <v>450</v>
+      </c>
+      <c r="BB34" s="2">
+        <v>72.8</v>
+      </c>
+      <c r="BD34" s="2">
+        <v>379.42</v>
+      </c>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -4482,8 +5014,20 @@
       <c r="AX35">
         <v>588.42399999999998</v>
       </c>
+      <c r="AY35">
+        <v>28</v>
+      </c>
+      <c r="AZ35">
+        <v>450</v>
+      </c>
+      <c r="BB35" s="2">
+        <v>64.489999999999995</v>
+      </c>
+      <c r="BD35" s="2">
+        <v>379.98</v>
+      </c>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -4577,8 +5121,20 @@
       <c r="AX36">
         <v>588.42399999999998</v>
       </c>
+      <c r="AY36">
+        <v>28</v>
+      </c>
+      <c r="AZ36">
+        <v>450</v>
+      </c>
+      <c r="BB36" s="2">
+        <v>66.55</v>
+      </c>
+      <c r="BD36" s="2">
+        <v>382.26</v>
+      </c>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -4672,8 +5228,20 @@
       <c r="AX37">
         <v>588.42399999999998</v>
       </c>
+      <c r="AY37">
+        <v>28</v>
+      </c>
+      <c r="AZ37">
+        <v>450</v>
+      </c>
+      <c r="BB37" s="2">
+        <v>65.17</v>
+      </c>
+      <c r="BD37" s="2">
+        <v>383.66</v>
+      </c>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -4767,8 +5335,20 @@
       <c r="AX38">
         <v>588.42399999999998</v>
       </c>
+      <c r="AY38">
+        <v>28</v>
+      </c>
+      <c r="AZ38">
+        <v>450</v>
+      </c>
+      <c r="BB38" s="2">
+        <v>60.43</v>
+      </c>
+      <c r="BD38" s="2">
+        <v>386.67</v>
+      </c>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -4862,8 +5442,20 @@
       <c r="AX39">
         <v>588.42399999999998</v>
       </c>
+      <c r="AY39">
+        <v>28</v>
+      </c>
+      <c r="AZ39">
+        <v>450</v>
+      </c>
+      <c r="BB39" s="2">
+        <v>60.78</v>
+      </c>
+      <c r="BD39" s="2">
+        <v>386.99</v>
+      </c>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
@@ -4957,8 +5549,20 @@
       <c r="AX40">
         <v>588.42399999999998</v>
       </c>
+      <c r="AY40">
+        <v>28</v>
+      </c>
+      <c r="AZ40">
+        <v>450</v>
+      </c>
+      <c r="BB40" s="2">
+        <v>60.23</v>
+      </c>
+      <c r="BD40" s="2">
+        <v>389.19</v>
+      </c>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
@@ -5085,8 +5689,26 @@
       <c r="AP41">
         <v>0.46513411207895444</v>
       </c>
+      <c r="AY41">
+        <v>28</v>
+      </c>
+      <c r="AZ41">
+        <v>450</v>
+      </c>
+      <c r="BA41" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB41" s="2">
+        <v>58.16</v>
+      </c>
+      <c r="BC41" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD41" s="2">
+        <v>378.71</v>
+      </c>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>2</v>
       </c>
@@ -5213,8 +5835,26 @@
       <c r="AP42">
         <v>0.46513411207895444</v>
       </c>
+      <c r="AY42">
+        <v>28</v>
+      </c>
+      <c r="AZ42">
+        <v>450</v>
+      </c>
+      <c r="BA42" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB42" s="2">
+        <v>50.52</v>
+      </c>
+      <c r="BC42" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD42" s="2">
+        <v>377.73</v>
+      </c>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
@@ -5341,8 +5981,26 @@
       <c r="AP43">
         <v>0.465134112078954</v>
       </c>
+      <c r="AY43">
+        <v>28</v>
+      </c>
+      <c r="AZ43">
+        <v>450</v>
+      </c>
+      <c r="BA43" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB43" s="2">
+        <v>22.74</v>
+      </c>
+      <c r="BC43" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD43" s="2">
+        <v>412.25</v>
+      </c>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
@@ -5469,8 +6127,26 @@
       <c r="AP44">
         <v>0.465134112078954</v>
       </c>
+      <c r="AY44">
+        <v>28</v>
+      </c>
+      <c r="AZ44">
+        <v>450</v>
+      </c>
+      <c r="BA44" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB44" s="2">
+        <v>25.27</v>
+      </c>
+      <c r="BC44" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD44" s="2">
+        <v>433.79</v>
+      </c>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
@@ -5597,8 +6273,26 @@
       <c r="AP45">
         <v>0.465134112078954</v>
       </c>
+      <c r="AY45">
+        <v>28</v>
+      </c>
+      <c r="AZ45">
+        <v>450</v>
+      </c>
+      <c r="BA45" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB45" s="2">
+        <v>35.33</v>
+      </c>
+      <c r="BC45" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD45" s="2">
+        <v>418.09</v>
+      </c>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -5725,8 +6419,26 @@
       <c r="AP46">
         <v>0.465134112078954</v>
       </c>
+      <c r="AY46">
+        <v>28</v>
+      </c>
+      <c r="AZ46">
+        <v>450</v>
+      </c>
+      <c r="BA46" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB46" s="2">
+        <v>41.15</v>
+      </c>
+      <c r="BC46" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD46" s="2">
+        <v>402.44</v>
+      </c>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
@@ -5853,8 +6565,26 @@
       <c r="AP47">
         <v>0.465134112078954</v>
       </c>
+      <c r="AY47">
+        <v>28</v>
+      </c>
+      <c r="AZ47">
+        <v>450</v>
+      </c>
+      <c r="BA47" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB47" s="2">
+        <v>43.3</v>
+      </c>
+      <c r="BC47" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD47" s="2">
+        <v>411.35</v>
+      </c>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>2</v>
       </c>
@@ -5981,8 +6711,26 @@
       <c r="AP48">
         <v>0.465134112078954</v>
       </c>
+      <c r="AY48">
+        <v>28</v>
+      </c>
+      <c r="AZ48">
+        <v>450</v>
+      </c>
+      <c r="BA48" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB48" s="2">
+        <v>45.28</v>
+      </c>
+      <c r="BC48" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD48" s="2">
+        <v>418.55</v>
+      </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
@@ -6109,8 +6857,26 @@
       <c r="AP49">
         <v>0.465134112078954</v>
       </c>
+      <c r="AY49">
+        <v>28</v>
+      </c>
+      <c r="AZ49">
+        <v>450</v>
+      </c>
+      <c r="BA49" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB49" s="2">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="BC49" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD49" s="2">
+        <v>423.86</v>
+      </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>2</v>
       </c>
@@ -6237,8 +7003,26 @@
       <c r="AP50">
         <v>0.465134112078954</v>
       </c>
+      <c r="AY50">
+        <v>28</v>
+      </c>
+      <c r="AZ50">
+        <v>450</v>
+      </c>
+      <c r="BA50" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB50" s="2">
+        <v>37.46</v>
+      </c>
+      <c r="BC50" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD50" s="2">
+        <v>429.16</v>
+      </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
@@ -6317,8 +7101,20 @@
       <c r="AP51">
         <v>0.465134112078954</v>
       </c>
+      <c r="AY51">
+        <v>28</v>
+      </c>
+      <c r="AZ51">
+        <v>450</v>
+      </c>
+      <c r="BB51" s="2">
+        <v>61.89</v>
+      </c>
+      <c r="BD51" s="2">
+        <v>378.13</v>
+      </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>2</v>
       </c>
@@ -6397,8 +7193,20 @@
       <c r="AP52">
         <v>0.465134112078954</v>
       </c>
+      <c r="AY52">
+        <v>28</v>
+      </c>
+      <c r="AZ52">
+        <v>450</v>
+      </c>
+      <c r="BB52" s="2">
+        <v>66.03</v>
+      </c>
+      <c r="BD52" s="2">
+        <v>377.43</v>
+      </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>2</v>
       </c>
@@ -6477,8 +7285,20 @@
       <c r="AP53">
         <v>0.465134112078954</v>
       </c>
+      <c r="AY53">
+        <v>28</v>
+      </c>
+      <c r="AZ53">
+        <v>450</v>
+      </c>
+      <c r="BB53" s="2">
+        <v>68.39</v>
+      </c>
+      <c r="BD53" s="2">
+        <v>377.64</v>
+      </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>2</v>
       </c>
@@ -6557,8 +7377,20 @@
       <c r="AP54">
         <v>0.465134112078954</v>
       </c>
+      <c r="AY54">
+        <v>28</v>
+      </c>
+      <c r="AZ54">
+        <v>450</v>
+      </c>
+      <c r="BB54" s="2">
+        <v>72.8</v>
+      </c>
+      <c r="BD54" s="2">
+        <v>379.42</v>
+      </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>2</v>
       </c>
@@ -6637,8 +7469,20 @@
       <c r="AP55">
         <v>0.465134112078954</v>
       </c>
+      <c r="AY55">
+        <v>28</v>
+      </c>
+      <c r="AZ55">
+        <v>450</v>
+      </c>
+      <c r="BB55" s="2">
+        <v>64.489999999999995</v>
+      </c>
+      <c r="BD55" s="2">
+        <v>379.98</v>
+      </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>2</v>
       </c>
@@ -6717,8 +7561,20 @@
       <c r="AP56">
         <v>0.465134112078954</v>
       </c>
+      <c r="AY56">
+        <v>28</v>
+      </c>
+      <c r="AZ56">
+        <v>450</v>
+      </c>
+      <c r="BB56" s="2">
+        <v>66.55</v>
+      </c>
+      <c r="BD56" s="2">
+        <v>382.26</v>
+      </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>2</v>
       </c>
@@ -6797,8 +7653,20 @@
       <c r="AP57">
         <v>0.465134112078954</v>
       </c>
+      <c r="AY57">
+        <v>28</v>
+      </c>
+      <c r="AZ57">
+        <v>450</v>
+      </c>
+      <c r="BB57" s="2">
+        <v>65.17</v>
+      </c>
+      <c r="BD57" s="2">
+        <v>383.66</v>
+      </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
@@ -6877,8 +7745,20 @@
       <c r="AP58">
         <v>0.465134112078954</v>
       </c>
+      <c r="AY58">
+        <v>28</v>
+      </c>
+      <c r="AZ58">
+        <v>450</v>
+      </c>
+      <c r="BB58" s="2">
+        <v>60.43</v>
+      </c>
+      <c r="BD58" s="2">
+        <v>386.67</v>
+      </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>2</v>
       </c>
@@ -6957,8 +7837,20 @@
       <c r="AP59">
         <v>0.465134112078954</v>
       </c>
+      <c r="AY59">
+        <v>28</v>
+      </c>
+      <c r="AZ59">
+        <v>450</v>
+      </c>
+      <c r="BB59" s="2">
+        <v>60.78</v>
+      </c>
+      <c r="BD59" s="2">
+        <v>386.99</v>
+      </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>2</v>
       </c>
@@ -7037,8 +7929,20 @@
       <c r="AP60">
         <v>0.465134112078954</v>
       </c>
+      <c r="AY60">
+        <v>28</v>
+      </c>
+      <c r="AZ60">
+        <v>450</v>
+      </c>
+      <c r="BB60" s="2">
+        <v>60.23</v>
+      </c>
+      <c r="BD60" s="2">
+        <v>389.19</v>
+      </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>3</v>
       </c>
@@ -7165,8 +8069,26 @@
       <c r="AP61">
         <v>0.34915420781291506</v>
       </c>
+      <c r="AY61">
+        <v>28</v>
+      </c>
+      <c r="AZ61">
+        <v>450</v>
+      </c>
+      <c r="BA61" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB61" s="2">
+        <v>58.16</v>
+      </c>
+      <c r="BC61" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD61" s="2">
+        <v>378.71</v>
+      </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>3</v>
       </c>
@@ -7293,8 +8215,26 @@
       <c r="AP62">
         <v>0.34915420781291506</v>
       </c>
+      <c r="AY62">
+        <v>28</v>
+      </c>
+      <c r="AZ62">
+        <v>450</v>
+      </c>
+      <c r="BA62" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB62" s="2">
+        <v>50.52</v>
+      </c>
+      <c r="BC62" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD62" s="2">
+        <v>377.73</v>
+      </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>3</v>
       </c>
@@ -7421,8 +8361,26 @@
       <c r="AP63">
         <v>0.34915420781291506</v>
       </c>
+      <c r="AY63">
+        <v>28</v>
+      </c>
+      <c r="AZ63">
+        <v>450</v>
+      </c>
+      <c r="BA63" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB63" s="2">
+        <v>22.74</v>
+      </c>
+      <c r="BC63" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD63" s="2">
+        <v>412.25</v>
+      </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>3</v>
       </c>
@@ -7549,8 +8507,26 @@
       <c r="AP64">
         <v>0.34915420781291506</v>
       </c>
+      <c r="AY64">
+        <v>28</v>
+      </c>
+      <c r="AZ64">
+        <v>450</v>
+      </c>
+      <c r="BA64" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB64" s="2">
+        <v>25.27</v>
+      </c>
+      <c r="BC64" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD64" s="2">
+        <v>433.79</v>
+      </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
@@ -7677,8 +8653,26 @@
       <c r="AP65">
         <v>0.34915420781291506</v>
       </c>
+      <c r="AY65">
+        <v>28</v>
+      </c>
+      <c r="AZ65">
+        <v>450</v>
+      </c>
+      <c r="BA65" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB65" s="2">
+        <v>35.33</v>
+      </c>
+      <c r="BC65" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD65" s="2">
+        <v>418.09</v>
+      </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
@@ -7805,8 +8799,26 @@
       <c r="AP66">
         <v>0.34915420781291506</v>
       </c>
+      <c r="AY66">
+        <v>28</v>
+      </c>
+      <c r="AZ66">
+        <v>450</v>
+      </c>
+      <c r="BA66" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB66" s="2">
+        <v>41.15</v>
+      </c>
+      <c r="BC66" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD66" s="2">
+        <v>402.44</v>
+      </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>3</v>
       </c>
@@ -7933,8 +8945,26 @@
       <c r="AP67">
         <v>0.34915420781291506</v>
       </c>
+      <c r="AY67">
+        <v>28</v>
+      </c>
+      <c r="AZ67">
+        <v>450</v>
+      </c>
+      <c r="BA67" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB67" s="2">
+        <v>43.3</v>
+      </c>
+      <c r="BC67" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD67" s="2">
+        <v>411.35</v>
+      </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>3</v>
       </c>
@@ -8061,8 +9091,26 @@
       <c r="AP68">
         <v>0.34915420781291506</v>
       </c>
+      <c r="AY68">
+        <v>28</v>
+      </c>
+      <c r="AZ68">
+        <v>450</v>
+      </c>
+      <c r="BA68" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB68" s="2">
+        <v>45.28</v>
+      </c>
+      <c r="BC68" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD68" s="2">
+        <v>418.55</v>
+      </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
@@ -8189,8 +9237,26 @@
       <c r="AP69">
         <v>0.34915420781291506</v>
       </c>
+      <c r="AY69">
+        <v>28</v>
+      </c>
+      <c r="AZ69">
+        <v>450</v>
+      </c>
+      <c r="BA69" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB69" s="2">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="BC69" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD69" s="2">
+        <v>423.86</v>
+      </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>3</v>
       </c>
@@ -8317,8 +9383,26 @@
       <c r="AP70">
         <v>0.34915420781291506</v>
       </c>
+      <c r="AY70">
+        <v>28</v>
+      </c>
+      <c r="AZ70">
+        <v>450</v>
+      </c>
+      <c r="BA70" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB70" s="2">
+        <v>37.46</v>
+      </c>
+      <c r="BC70" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD70" s="2">
+        <v>429.16</v>
+      </c>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>3</v>
       </c>
@@ -8397,8 +9481,20 @@
       <c r="AP71">
         <v>0.34915420781291506</v>
       </c>
+      <c r="AY71">
+        <v>28</v>
+      </c>
+      <c r="AZ71">
+        <v>450</v>
+      </c>
+      <c r="BB71" s="2">
+        <v>61.89</v>
+      </c>
+      <c r="BD71" s="2">
+        <v>378.13</v>
+      </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>3</v>
       </c>
@@ -8477,8 +9573,20 @@
       <c r="AP72">
         <v>0.34915420781291506</v>
       </c>
+      <c r="AY72">
+        <v>28</v>
+      </c>
+      <c r="AZ72">
+        <v>450</v>
+      </c>
+      <c r="BB72" s="2">
+        <v>66.03</v>
+      </c>
+      <c r="BD72" s="2">
+        <v>377.43</v>
+      </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>3</v>
       </c>
@@ -8557,8 +9665,20 @@
       <c r="AP73">
         <v>0.34915420781291506</v>
       </c>
+      <c r="AY73">
+        <v>28</v>
+      </c>
+      <c r="AZ73">
+        <v>450</v>
+      </c>
+      <c r="BB73" s="2">
+        <v>68.39</v>
+      </c>
+      <c r="BD73" s="2">
+        <v>377.64</v>
+      </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>3</v>
       </c>
@@ -8637,8 +9757,20 @@
       <c r="AP74">
         <v>0.34915420781291506</v>
       </c>
+      <c r="AY74">
+        <v>28</v>
+      </c>
+      <c r="AZ74">
+        <v>450</v>
+      </c>
+      <c r="BB74" s="2">
+        <v>72.8</v>
+      </c>
+      <c r="BD74" s="2">
+        <v>379.42</v>
+      </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>3</v>
       </c>
@@ -8717,8 +9849,20 @@
       <c r="AP75">
         <v>0.34915420781291506</v>
       </c>
+      <c r="AY75">
+        <v>28</v>
+      </c>
+      <c r="AZ75">
+        <v>450</v>
+      </c>
+      <c r="BB75" s="2">
+        <v>64.489999999999995</v>
+      </c>
+      <c r="BD75" s="2">
+        <v>379.98</v>
+      </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>3</v>
       </c>
@@ -8797,8 +9941,20 @@
       <c r="AP76">
         <v>0.34915420781291506</v>
       </c>
+      <c r="AY76">
+        <v>28</v>
+      </c>
+      <c r="AZ76">
+        <v>450</v>
+      </c>
+      <c r="BB76" s="2">
+        <v>66.55</v>
+      </c>
+      <c r="BD76" s="2">
+        <v>382.26</v>
+      </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>3</v>
       </c>
@@ -8877,8 +10033,20 @@
       <c r="AP77">
         <v>0.34915420781291506</v>
       </c>
+      <c r="AY77">
+        <v>28</v>
+      </c>
+      <c r="AZ77">
+        <v>450</v>
+      </c>
+      <c r="BB77" s="2">
+        <v>65.17</v>
+      </c>
+      <c r="BD77" s="2">
+        <v>383.66</v>
+      </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>3</v>
       </c>
@@ -8957,8 +10125,20 @@
       <c r="AP78">
         <v>0.34915420781291506</v>
       </c>
+      <c r="AY78">
+        <v>28</v>
+      </c>
+      <c r="AZ78">
+        <v>450</v>
+      </c>
+      <c r="BB78" s="2">
+        <v>60.43</v>
+      </c>
+      <c r="BD78" s="2">
+        <v>386.67</v>
+      </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>3</v>
       </c>
@@ -9037,8 +10217,20 @@
       <c r="AP79">
         <v>0.34915420781291506</v>
       </c>
+      <c r="AY79">
+        <v>28</v>
+      </c>
+      <c r="AZ79">
+        <v>450</v>
+      </c>
+      <c r="BB79" s="2">
+        <v>60.78</v>
+      </c>
+      <c r="BD79" s="2">
+        <v>386.99</v>
+      </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>3</v>
       </c>
@@ -9117,8 +10309,20 @@
       <c r="AP80">
         <v>0.34915420781291506</v>
       </c>
+      <c r="AY80">
+        <v>28</v>
+      </c>
+      <c r="AZ80">
+        <v>450</v>
+      </c>
+      <c r="BB80" s="2">
+        <v>60.23</v>
+      </c>
+      <c r="BD80" s="2">
+        <v>389.19</v>
+      </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>4</v>
       </c>
@@ -9245,8 +10449,26 @@
       <c r="AP81">
         <v>0.17502138574382786</v>
       </c>
+      <c r="AY81">
+        <v>28</v>
+      </c>
+      <c r="AZ81">
+        <v>450</v>
+      </c>
+      <c r="BA81" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB81" s="2">
+        <v>58.16</v>
+      </c>
+      <c r="BC81" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD81" s="2">
+        <v>378.71</v>
+      </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>4</v>
       </c>
@@ -9373,8 +10595,26 @@
       <c r="AP82">
         <v>0.17502138574382786</v>
       </c>
+      <c r="AY82">
+        <v>28</v>
+      </c>
+      <c r="AZ82">
+        <v>450</v>
+      </c>
+      <c r="BA82" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB82" s="2">
+        <v>50.52</v>
+      </c>
+      <c r="BC82" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD82" s="2">
+        <v>377.73</v>
+      </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>4</v>
       </c>
@@ -9501,8 +10741,26 @@
       <c r="AP83">
         <v>0.17502138574382786</v>
       </c>
+      <c r="AY83">
+        <v>28</v>
+      </c>
+      <c r="AZ83">
+        <v>450</v>
+      </c>
+      <c r="BA83" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB83" s="2">
+        <v>22.74</v>
+      </c>
+      <c r="BC83" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD83" s="2">
+        <v>412.25</v>
+      </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>4</v>
       </c>
@@ -9629,8 +10887,26 @@
       <c r="AP84">
         <v>0.17502138574382786</v>
       </c>
+      <c r="AY84">
+        <v>28</v>
+      </c>
+      <c r="AZ84">
+        <v>450</v>
+      </c>
+      <c r="BA84" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB84" s="2">
+        <v>25.27</v>
+      </c>
+      <c r="BC84" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD84" s="2">
+        <v>433.79</v>
+      </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>4</v>
       </c>
@@ -9757,8 +11033,26 @@
       <c r="AP85">
         <v>0.17502138574382786</v>
       </c>
+      <c r="AY85">
+        <v>28</v>
+      </c>
+      <c r="AZ85">
+        <v>450</v>
+      </c>
+      <c r="BA85" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB85" s="2">
+        <v>35.33</v>
+      </c>
+      <c r="BC85" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD85" s="2">
+        <v>418.09</v>
+      </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>4</v>
       </c>
@@ -9885,8 +11179,26 @@
       <c r="AP86">
         <v>0.17502138574382786</v>
       </c>
+      <c r="AY86">
+        <v>28</v>
+      </c>
+      <c r="AZ86">
+        <v>450</v>
+      </c>
+      <c r="BA86" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB86" s="2">
+        <v>41.15</v>
+      </c>
+      <c r="BC86" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD86" s="2">
+        <v>402.44</v>
+      </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>4</v>
       </c>
@@ -10013,8 +11325,26 @@
       <c r="AP87">
         <v>0.17502138574382786</v>
       </c>
+      <c r="AY87">
+        <v>28</v>
+      </c>
+      <c r="AZ87">
+        <v>450</v>
+      </c>
+      <c r="BA87" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB87" s="2">
+        <v>43.3</v>
+      </c>
+      <c r="BC87" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD87" s="2">
+        <v>411.35</v>
+      </c>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>4</v>
       </c>
@@ -10141,8 +11471,26 @@
       <c r="AP88">
         <v>0.17502138574382786</v>
       </c>
+      <c r="AY88">
+        <v>28</v>
+      </c>
+      <c r="AZ88">
+        <v>450</v>
+      </c>
+      <c r="BA88" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB88" s="2">
+        <v>45.28</v>
+      </c>
+      <c r="BC88" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD88" s="2">
+        <v>418.55</v>
+      </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>4</v>
       </c>
@@ -10269,8 +11617,26 @@
       <c r="AP89">
         <v>0.17502138574382786</v>
       </c>
+      <c r="AY89">
+        <v>28</v>
+      </c>
+      <c r="AZ89">
+        <v>450</v>
+      </c>
+      <c r="BA89" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB89" s="2">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="BC89" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD89" s="2">
+        <v>423.86</v>
+      </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>4</v>
       </c>
@@ -10397,8 +11763,26 @@
       <c r="AP90">
         <v>0.17502138574382786</v>
       </c>
+      <c r="AY90">
+        <v>28</v>
+      </c>
+      <c r="AZ90">
+        <v>450</v>
+      </c>
+      <c r="BA90" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB90" s="2">
+        <v>37.46</v>
+      </c>
+      <c r="BC90" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD90" s="2">
+        <v>429.16</v>
+      </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>4</v>
       </c>
@@ -10477,8 +11861,20 @@
       <c r="AP91">
         <v>0.17502138574382786</v>
       </c>
+      <c r="AY91">
+        <v>28</v>
+      </c>
+      <c r="AZ91">
+        <v>450</v>
+      </c>
+      <c r="BB91" s="2">
+        <v>61.89</v>
+      </c>
+      <c r="BD91" s="2">
+        <v>378.13</v>
+      </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>4</v>
       </c>
@@ -10557,8 +11953,20 @@
       <c r="AP92">
         <v>0.17502138574382786</v>
       </c>
+      <c r="AY92">
+        <v>28</v>
+      </c>
+      <c r="AZ92">
+        <v>450</v>
+      </c>
+      <c r="BB92" s="2">
+        <v>66.03</v>
+      </c>
+      <c r="BD92" s="2">
+        <v>377.43</v>
+      </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>4</v>
       </c>
@@ -10637,8 +12045,20 @@
       <c r="AP93">
         <v>0.17502138574382786</v>
       </c>
+      <c r="AY93">
+        <v>28</v>
+      </c>
+      <c r="AZ93">
+        <v>450</v>
+      </c>
+      <c r="BB93" s="2">
+        <v>68.39</v>
+      </c>
+      <c r="BD93" s="2">
+        <v>377.64</v>
+      </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>4</v>
       </c>
@@ -10717,8 +12137,20 @@
       <c r="AP94">
         <v>0.17502138574382786</v>
       </c>
+      <c r="AY94">
+        <v>28</v>
+      </c>
+      <c r="AZ94">
+        <v>450</v>
+      </c>
+      <c r="BB94" s="2">
+        <v>72.8</v>
+      </c>
+      <c r="BD94" s="2">
+        <v>379.42</v>
+      </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>4</v>
       </c>
@@ -10797,8 +12229,20 @@
       <c r="AP95">
         <v>0.17502138574382786</v>
       </c>
+      <c r="AY95">
+        <v>28</v>
+      </c>
+      <c r="AZ95">
+        <v>450</v>
+      </c>
+      <c r="BB95" s="2">
+        <v>64.489999999999995</v>
+      </c>
+      <c r="BD95" s="2">
+        <v>379.98</v>
+      </c>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>4</v>
       </c>
@@ -10877,8 +12321,20 @@
       <c r="AP96">
         <v>0.17502138574382786</v>
       </c>
+      <c r="AY96">
+        <v>28</v>
+      </c>
+      <c r="AZ96">
+        <v>450</v>
+      </c>
+      <c r="BB96" s="2">
+        <v>66.55</v>
+      </c>
+      <c r="BD96" s="2">
+        <v>382.26</v>
+      </c>
     </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>4</v>
       </c>
@@ -10957,8 +12413,20 @@
       <c r="AP97">
         <v>0.17502138574382786</v>
       </c>
+      <c r="AY97">
+        <v>28</v>
+      </c>
+      <c r="AZ97">
+        <v>450</v>
+      </c>
+      <c r="BB97" s="2">
+        <v>65.17</v>
+      </c>
+      <c r="BD97" s="2">
+        <v>383.66</v>
+      </c>
     </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>4</v>
       </c>
@@ -11037,8 +12505,20 @@
       <c r="AP98">
         <v>0.17502138574382786</v>
       </c>
+      <c r="AY98">
+        <v>28</v>
+      </c>
+      <c r="AZ98">
+        <v>450</v>
+      </c>
+      <c r="BB98" s="2">
+        <v>60.43</v>
+      </c>
+      <c r="BD98" s="2">
+        <v>386.67</v>
+      </c>
     </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>4</v>
       </c>
@@ -11117,8 +12597,20 @@
       <c r="AP99">
         <v>0.17502138574382786</v>
       </c>
+      <c r="AY99">
+        <v>28</v>
+      </c>
+      <c r="AZ99">
+        <v>450</v>
+      </c>
+      <c r="BB99" s="2">
+        <v>60.78</v>
+      </c>
+      <c r="BD99" s="2">
+        <v>386.99</v>
+      </c>
     </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>4</v>
       </c>
@@ -11197,8 +12689,20 @@
       <c r="AP100">
         <v>0.17502138574382786</v>
       </c>
+      <c r="AY100">
+        <v>28</v>
+      </c>
+      <c r="AZ100">
+        <v>450</v>
+      </c>
+      <c r="BB100" s="2">
+        <v>60.23</v>
+      </c>
+      <c r="BD100" s="2">
+        <v>389.19</v>
+      </c>
     </row>
-    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>5</v>
       </c>
@@ -11325,8 +12829,26 @@
       <c r="AP101">
         <v>0.28661376678506767</v>
       </c>
+      <c r="AY101">
+        <v>28</v>
+      </c>
+      <c r="AZ101">
+        <v>450</v>
+      </c>
+      <c r="BA101" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB101" s="2">
+        <v>58.16</v>
+      </c>
+      <c r="BC101" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD101" s="2">
+        <v>378.71</v>
+      </c>
     </row>
-    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>5</v>
       </c>
@@ -11453,8 +12975,26 @@
       <c r="AP102">
         <v>0.28661376678506767</v>
       </c>
+      <c r="AY102">
+        <v>28</v>
+      </c>
+      <c r="AZ102">
+        <v>450</v>
+      </c>
+      <c r="BA102" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB102" s="2">
+        <v>50.52</v>
+      </c>
+      <c r="BC102" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD102" s="2">
+        <v>377.73</v>
+      </c>
     </row>
-    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>5</v>
       </c>
@@ -11581,8 +13121,26 @@
       <c r="AP103">
         <v>0.28661376678506767</v>
       </c>
+      <c r="AY103">
+        <v>28</v>
+      </c>
+      <c r="AZ103">
+        <v>450</v>
+      </c>
+      <c r="BA103" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB103" s="2">
+        <v>22.74</v>
+      </c>
+      <c r="BC103" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD103" s="2">
+        <v>412.25</v>
+      </c>
     </row>
-    <row r="104" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>5</v>
       </c>
@@ -11709,8 +13267,26 @@
       <c r="AP104">
         <v>0.28661376678506767</v>
       </c>
+      <c r="AY104">
+        <v>28</v>
+      </c>
+      <c r="AZ104">
+        <v>450</v>
+      </c>
+      <c r="BA104" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB104" s="2">
+        <v>25.27</v>
+      </c>
+      <c r="BC104" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD104" s="2">
+        <v>433.79</v>
+      </c>
     </row>
-    <row r="105" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>5</v>
       </c>
@@ -11837,8 +13413,26 @@
       <c r="AP105">
         <v>0.28661376678506767</v>
       </c>
+      <c r="AY105">
+        <v>28</v>
+      </c>
+      <c r="AZ105">
+        <v>450</v>
+      </c>
+      <c r="BA105" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB105" s="2">
+        <v>35.33</v>
+      </c>
+      <c r="BC105" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD105" s="2">
+        <v>418.09</v>
+      </c>
     </row>
-    <row r="106" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>5</v>
       </c>
@@ -11965,8 +13559,26 @@
       <c r="AP106">
         <v>0.28661376678506767</v>
       </c>
+      <c r="AY106">
+        <v>28</v>
+      </c>
+      <c r="AZ106">
+        <v>450</v>
+      </c>
+      <c r="BA106" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB106" s="2">
+        <v>41.15</v>
+      </c>
+      <c r="BC106" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD106" s="2">
+        <v>402.44</v>
+      </c>
     </row>
-    <row r="107" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>5</v>
       </c>
@@ -12093,8 +13705,26 @@
       <c r="AP107">
         <v>0.28661376678506767</v>
       </c>
+      <c r="AY107">
+        <v>28</v>
+      </c>
+      <c r="AZ107">
+        <v>450</v>
+      </c>
+      <c r="BA107" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB107" s="2">
+        <v>43.3</v>
+      </c>
+      <c r="BC107" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD107" s="2">
+        <v>411.35</v>
+      </c>
     </row>
-    <row r="108" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>5</v>
       </c>
@@ -12221,8 +13851,26 @@
       <c r="AP108">
         <v>0.28661376678506767</v>
       </c>
+      <c r="AY108">
+        <v>28</v>
+      </c>
+      <c r="AZ108">
+        <v>450</v>
+      </c>
+      <c r="BA108" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB108" s="2">
+        <v>45.28</v>
+      </c>
+      <c r="BC108" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD108" s="2">
+        <v>418.55</v>
+      </c>
     </row>
-    <row r="109" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>5</v>
       </c>
@@ -12349,8 +13997,26 @@
       <c r="AP109">
         <v>0.28661376678506767</v>
       </c>
+      <c r="AY109">
+        <v>28</v>
+      </c>
+      <c r="AZ109">
+        <v>450</v>
+      </c>
+      <c r="BA109" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB109" s="2">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="BC109" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD109" s="2">
+        <v>423.86</v>
+      </c>
     </row>
-    <row r="110" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>5</v>
       </c>
@@ -12477,8 +14143,26 @@
       <c r="AP110">
         <v>0.28661376678506767</v>
       </c>
+      <c r="AY110">
+        <v>28</v>
+      </c>
+      <c r="AZ110">
+        <v>450</v>
+      </c>
+      <c r="BA110" s="2">
+        <v>28</v>
+      </c>
+      <c r="BB110" s="2">
+        <v>37.46</v>
+      </c>
+      <c r="BC110" s="2">
+        <v>450</v>
+      </c>
+      <c r="BD110" s="2">
+        <v>429.16</v>
+      </c>
     </row>
-    <row r="111" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>5</v>
       </c>
@@ -12557,8 +14241,20 @@
       <c r="AP111">
         <v>0.28661376678506767</v>
       </c>
+      <c r="AY111">
+        <v>28</v>
+      </c>
+      <c r="AZ111">
+        <v>450</v>
+      </c>
+      <c r="BB111" s="2">
+        <v>61.89</v>
+      </c>
+      <c r="BD111" s="2">
+        <v>378.13</v>
+      </c>
     </row>
-    <row r="112" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>5</v>
       </c>
@@ -12637,8 +14333,20 @@
       <c r="AP112">
         <v>0.28661376678506767</v>
       </c>
+      <c r="AY112">
+        <v>28</v>
+      </c>
+      <c r="AZ112">
+        <v>450</v>
+      </c>
+      <c r="BB112" s="2">
+        <v>66.03</v>
+      </c>
+      <c r="BD112" s="2">
+        <v>377.43</v>
+      </c>
     </row>
-    <row r="113" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>5</v>
       </c>
@@ -12717,8 +14425,20 @@
       <c r="AP113">
         <v>0.28661376678506767</v>
       </c>
+      <c r="AY113">
+        <v>28</v>
+      </c>
+      <c r="AZ113">
+        <v>450</v>
+      </c>
+      <c r="BB113" s="2">
+        <v>68.39</v>
+      </c>
+      <c r="BD113" s="2">
+        <v>377.64</v>
+      </c>
     </row>
-    <row r="114" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>5</v>
       </c>
@@ -12797,8 +14517,20 @@
       <c r="AP114">
         <v>0.28661376678506767</v>
       </c>
+      <c r="AY114">
+        <v>28</v>
+      </c>
+      <c r="AZ114">
+        <v>450</v>
+      </c>
+      <c r="BB114" s="2">
+        <v>72.8</v>
+      </c>
+      <c r="BD114" s="2">
+        <v>379.42</v>
+      </c>
     </row>
-    <row r="115" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>5</v>
       </c>
@@ -12877,8 +14609,20 @@
       <c r="AP115">
         <v>0.28661376678506767</v>
       </c>
+      <c r="AY115">
+        <v>28</v>
+      </c>
+      <c r="AZ115">
+        <v>450</v>
+      </c>
+      <c r="BB115" s="2">
+        <v>64.489999999999995</v>
+      </c>
+      <c r="BD115" s="2">
+        <v>379.98</v>
+      </c>
     </row>
-    <row r="116" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>5</v>
       </c>
@@ -12957,8 +14701,20 @@
       <c r="AP116">
         <v>0.28661376678506767</v>
       </c>
+      <c r="AY116">
+        <v>28</v>
+      </c>
+      <c r="AZ116">
+        <v>450</v>
+      </c>
+      <c r="BB116" s="2">
+        <v>66.55</v>
+      </c>
+      <c r="BD116" s="2">
+        <v>382.26</v>
+      </c>
     </row>
-    <row r="117" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>5</v>
       </c>
@@ -13037,8 +14793,20 @@
       <c r="AP117">
         <v>0.28661376678506767</v>
       </c>
+      <c r="AY117">
+        <v>28</v>
+      </c>
+      <c r="AZ117">
+        <v>450</v>
+      </c>
+      <c r="BB117" s="2">
+        <v>65.17</v>
+      </c>
+      <c r="BD117" s="2">
+        <v>383.66</v>
+      </c>
     </row>
-    <row r="118" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>5</v>
       </c>
@@ -13117,8 +14885,20 @@
       <c r="AP118">
         <v>0.28661376678506767</v>
       </c>
+      <c r="AY118">
+        <v>28</v>
+      </c>
+      <c r="AZ118">
+        <v>450</v>
+      </c>
+      <c r="BB118" s="2">
+        <v>60.43</v>
+      </c>
+      <c r="BD118" s="2">
+        <v>386.67</v>
+      </c>
     </row>
-    <row r="119" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>5</v>
       </c>
@@ -13197,8 +14977,20 @@
       <c r="AP119">
         <v>0.28661376678506767</v>
       </c>
+      <c r="AY119">
+        <v>28</v>
+      </c>
+      <c r="AZ119">
+        <v>450</v>
+      </c>
+      <c r="BB119" s="2">
+        <v>60.78</v>
+      </c>
+      <c r="BD119" s="2">
+        <v>386.99</v>
+      </c>
     </row>
-    <row r="120" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>5</v>
       </c>
@@ -13276,6 +15068,18 @@
       </c>
       <c r="AP120">
         <v>0.28661376678506767</v>
+      </c>
+      <c r="AY120">
+        <v>28</v>
+      </c>
+      <c r="AZ120">
+        <v>450</v>
+      </c>
+      <c r="BB120" s="2">
+        <v>60.23</v>
+      </c>
+      <c r="BD120" s="2">
+        <v>389.19</v>
       </c>
     </row>
   </sheetData>

--- a/public/Calc_dzo.xlsx
+++ b/public/Calc_dzo.xlsx
@@ -358,9 +358,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AU1" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="Y11" sqref="Y11:AN20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2030,49 +2030,49 @@
         <v>43466</v>
       </c>
       <c r="Y11">
+        <v>18562422.277550001</v>
+      </c>
+      <c r="Z11">
+        <v>14300506.406769998</v>
+      </c>
+      <c r="AA11">
+        <v>4504029.4469099995</v>
+      </c>
+      <c r="AB11">
+        <v>1214696.93435</v>
+      </c>
+      <c r="AC11">
+        <v>596193.76751000003</v>
+      </c>
+      <c r="AD11">
+        <v>4261915.8707799986</v>
+      </c>
+      <c r="AE11">
+        <v>15053201.738709997</v>
+      </c>
+      <c r="AF11">
+        <v>0.79035070588196576</v>
+      </c>
+      <c r="AH11">
+        <v>6494379.8069499992</v>
+      </c>
+      <c r="AI11">
+        <v>84759.919075570782</v>
+      </c>
+      <c r="AJ11">
+        <v>31.003526919953863</v>
+      </c>
+      <c r="AK11">
+        <v>54696.872341917799</v>
+      </c>
+      <c r="AL11">
+        <v>20.007050178728697</v>
+      </c>
+      <c r="AM11">
         <v>0</v>
       </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
+      <c r="AN11">
         <v>219</v>
-      </c>
-      <c r="AI11">
-        <v>100635046.138032</v>
-      </c>
-      <c r="AJ11">
-        <v>71185473.206265301</v>
-      </c>
-      <c r="AK11">
-        <v>53901658.728683501</v>
-      </c>
-      <c r="AL11">
-        <v>11785222.0620094</v>
-      </c>
-      <c r="AM11">
-        <v>5443201.2855724003</v>
-      </c>
-      <c r="AN11">
-        <v>14254232.546941901</v>
       </c>
       <c r="AO11">
         <v>85263654.960468993</v>
@@ -2116,49 +2116,49 @@
         <v>43497</v>
       </c>
       <c r="Y12">
+        <v>32556854.916239999</v>
+      </c>
+      <c r="Z12">
+        <v>24421130.189859997</v>
+      </c>
+      <c r="AA12">
+        <v>8469334.1566599999</v>
+      </c>
+      <c r="AB12">
+        <v>2286158.9422499998</v>
+      </c>
+      <c r="AC12">
+        <v>1169735.1581900001</v>
+      </c>
+      <c r="AD12">
+        <v>8135724.726379999</v>
+      </c>
+      <c r="AE12">
+        <v>25970955.492219999</v>
+      </c>
+      <c r="AF12">
+        <v>0.77618814703298766</v>
+      </c>
+      <c r="AH12">
+        <v>12390086.969419999</v>
+      </c>
+      <c r="AI12">
+        <v>78830.157182179173</v>
+      </c>
+      <c r="AJ12">
+        <v>28.888013485313795</v>
+      </c>
+      <c r="AK12">
+        <v>48388.765267506045</v>
+      </c>
+      <c r="AL12">
+        <v>17.732494181825714</v>
+      </c>
+      <c r="AM12">
         <v>0</v>
       </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>194</v>
-      </c>
-      <c r="AI12">
-        <v>100635046.138032</v>
-      </c>
-      <c r="AJ12">
-        <v>71185473.206265301</v>
-      </c>
-      <c r="AK12">
-        <v>53901658.728683501</v>
-      </c>
-      <c r="AL12">
-        <v>11785222.0620094</v>
-      </c>
-      <c r="AM12">
-        <v>5443201.2855724003</v>
-      </c>
       <c r="AN12">
-        <v>14254232.546941901</v>
+        <v>413</v>
       </c>
       <c r="AO12">
         <v>85263654.960468993</v>
@@ -2202,49 +2202,49 @@
         <v>43525</v>
       </c>
       <c r="Y13">
+        <v>52199105.298749998</v>
+      </c>
+      <c r="Z13">
+        <v>37085175.550709993</v>
+      </c>
+      <c r="AA13">
+        <v>11975982.648779999</v>
+      </c>
+      <c r="AB13">
+        <v>3428852.9213199997</v>
+      </c>
+      <c r="AC13">
+        <v>1725247.3218700006</v>
+      </c>
+      <c r="AD13">
+        <v>15113929.748039998</v>
+      </c>
+      <c r="AE13">
+        <v>42176905.647299998</v>
+      </c>
+      <c r="AF13">
+        <v>0.80186273818567455</v>
+      </c>
+      <c r="AH13">
+        <v>21546879.114159998</v>
+      </c>
+      <c r="AI13">
+        <v>83805.538352381176</v>
+      </c>
+      <c r="AJ13">
+        <v>30.694208155820892</v>
+      </c>
+      <c r="AK13">
+        <v>48769.955244827761</v>
+      </c>
+      <c r="AL13">
+        <v>17.862246188795933</v>
+      </c>
+      <c r="AM13">
         <v>0</v>
       </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>209.85985299999999</v>
-      </c>
-      <c r="AI13">
-        <v>100635046.138032</v>
-      </c>
-      <c r="AJ13">
-        <v>71185473.206265301</v>
-      </c>
-      <c r="AK13">
-        <v>53901658.728683501</v>
-      </c>
-      <c r="AL13">
-        <v>11785222.0620094</v>
-      </c>
-      <c r="AM13">
-        <v>5443201.2855724003</v>
-      </c>
       <c r="AN13">
-        <v>14254232.546941901</v>
+        <v>622.85985299999993</v>
       </c>
       <c r="AO13">
         <v>85263654.960468993</v>
@@ -2288,49 +2288,49 @@
         <v>43556</v>
       </c>
       <c r="Y14">
+        <v>67439383.396669999</v>
+      </c>
+      <c r="Z14">
+        <v>46349365.074939996</v>
+      </c>
+      <c r="AA14">
+        <v>15272488.4067</v>
+      </c>
+      <c r="AB14">
+        <v>4458177.1140199993</v>
+      </c>
+      <c r="AC14">
+        <v>2273080.5505100004</v>
+      </c>
+      <c r="AD14">
+        <v>21090018.321729999</v>
+      </c>
+      <c r="AE14">
+        <v>54690755.257819995</v>
+      </c>
+      <c r="AF14">
+        <v>0.80714227654213699</v>
+      </c>
+      <c r="AH14">
+        <v>29511563.535659999</v>
+      </c>
+      <c r="AI14">
+        <v>82215.59291988927</v>
+      </c>
+      <c r="AJ14">
+        <v>29.970616474854378</v>
+      </c>
+      <c r="AK14">
+        <v>45610.773256327055</v>
+      </c>
+      <c r="AL14">
+        <v>16.62680939026869</v>
+      </c>
+      <c r="AM14">
         <v>0</v>
       </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>197.41499999999999</v>
-      </c>
-      <c r="AI14">
-        <v>100635046.138032</v>
-      </c>
-      <c r="AJ14">
-        <v>71185473.206265301</v>
-      </c>
-      <c r="AK14">
-        <v>53901658.728683501</v>
-      </c>
-      <c r="AL14">
-        <v>11785222.0620094</v>
-      </c>
-      <c r="AM14">
-        <v>5443201.2855724003</v>
-      </c>
       <c r="AN14">
-        <v>14254232.546941901</v>
+        <v>820.27485299999989</v>
       </c>
       <c r="AO14">
         <v>85263654.960468993</v>
@@ -2374,49 +2374,49 @@
         <v>43586</v>
       </c>
       <c r="Y15">
+        <v>92719425.786679998</v>
+      </c>
+      <c r="Z15">
+        <v>71632630.162649989</v>
+      </c>
+      <c r="AA15">
+        <v>20566219.488260001</v>
+      </c>
+      <c r="AB15">
+        <v>8146244.1776299989</v>
+      </c>
+      <c r="AC15">
+        <v>5369142.7866399996</v>
+      </c>
+      <c r="AD15">
+        <v>21086795.624029998</v>
+      </c>
+      <c r="AE15">
+        <v>69981361.997720003</v>
+      </c>
+      <c r="AF15">
+        <v>0.7521111384208794</v>
+      </c>
+      <c r="AH15">
+        <v>31497462.635879993</v>
+      </c>
+      <c r="AI15">
+        <v>91627.025934863224</v>
+      </c>
+      <c r="AJ15">
+        <v>33.352205235400838</v>
+      </c>
+      <c r="AK15">
+        <v>59902.06502779272</v>
+      </c>
+      <c r="AL15">
+        <v>21.804330615854905</v>
+      </c>
+      <c r="AM15">
         <v>0</v>
       </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>191.647392</v>
-      </c>
-      <c r="AI15">
-        <v>100635046.138032</v>
-      </c>
-      <c r="AJ15">
-        <v>71185473.206265301</v>
-      </c>
-      <c r="AK15">
-        <v>53901658.728683501</v>
-      </c>
-      <c r="AL15">
-        <v>11785222.0620094</v>
-      </c>
-      <c r="AM15">
-        <v>5443201.2855724003</v>
-      </c>
       <c r="AN15">
-        <v>14254232.546941901</v>
+        <v>1011.9222449999999</v>
       </c>
       <c r="AO15">
         <v>85263654.960468993</v>
@@ -2460,49 +2460,49 @@
         <v>43617</v>
       </c>
       <c r="Y16">
+        <v>109606697.68274999</v>
+      </c>
+      <c r="Z16">
+        <v>84166166.721049994</v>
+      </c>
+      <c r="AA16">
+        <v>24574585.08732</v>
+      </c>
+      <c r="AB16">
+        <v>9325935.0236299988</v>
+      </c>
+      <c r="AC16">
+        <v>7871276.0453599989</v>
+      </c>
+      <c r="AD16">
+        <v>25440530.961699996</v>
+      </c>
+      <c r="AE16">
+        <v>80990602.745119989</v>
+      </c>
+      <c r="AF16">
+        <v>0.73765938283035115</v>
+      </c>
+      <c r="AH16">
+        <v>37712221.222429998</v>
+      </c>
+      <c r="AI16">
+        <v>92447.17470159888</v>
+      </c>
+      <c r="AJ16">
+        <v>33.450028364319564</v>
+      </c>
+      <c r="AK16">
+        <v>60051.403670771018</v>
+      </c>
+      <c r="AL16">
+        <v>21.728313088942386</v>
+      </c>
+      <c r="AM16">
         <v>0</v>
       </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>173.69211300000001</v>
-      </c>
-      <c r="AI16">
-        <v>100635046.138032</v>
-      </c>
-      <c r="AJ16">
-        <v>71185473.206265301</v>
-      </c>
-      <c r="AK16">
-        <v>53901658.728683501</v>
-      </c>
-      <c r="AL16">
-        <v>11785222.0620094</v>
-      </c>
-      <c r="AM16">
-        <v>5443201.2855724003</v>
-      </c>
       <c r="AN16">
-        <v>14254232.546941901</v>
+        <v>1185.6143579999998</v>
       </c>
       <c r="AO16">
         <v>85263654.960468993</v>
@@ -2546,49 +2546,49 @@
         <v>43647</v>
       </c>
       <c r="Y17">
+        <v>122826718.44958998</v>
+      </c>
+      <c r="Z17">
+        <v>94444864.499929994</v>
+      </c>
+      <c r="AA17">
+        <v>27939604.469239999</v>
+      </c>
+      <c r="AB17">
+        <v>9910869.9583399985</v>
+      </c>
+      <c r="AC17">
+        <v>8313542.7484799987</v>
+      </c>
+      <c r="AD17">
+        <v>28381853.949659996</v>
+      </c>
+      <c r="AE17">
+        <v>91297193.801419988</v>
+      </c>
+      <c r="AF17">
+        <v>0.74439339323215814</v>
+      </c>
+      <c r="AH17">
+        <v>42409017.342199996</v>
+      </c>
+      <c r="AI17">
+        <v>91743.540365957349</v>
+      </c>
+      <c r="AJ17">
+        <v>33.074301093860313</v>
+      </c>
+      <c r="AK17">
+        <v>59478.475629117842</v>
+      </c>
+      <c r="AL17">
+        <v>21.442479805272864</v>
+      </c>
+      <c r="AM17">
         <v>0</v>
       </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>153.19072800000001</v>
-      </c>
-      <c r="AI17">
-        <v>100635046.138032</v>
-      </c>
-      <c r="AJ17">
-        <v>71185473.206265301</v>
-      </c>
-      <c r="AK17">
-        <v>53901658.728683501</v>
-      </c>
-      <c r="AL17">
-        <v>11785222.0620094</v>
-      </c>
-      <c r="AM17">
-        <v>5443201.2855724003</v>
-      </c>
       <c r="AN17">
-        <v>14254232.546941901</v>
+        <v>1338.8050859999998</v>
       </c>
       <c r="AO17">
         <v>85263654.960468993</v>
@@ -2632,49 +2632,49 @@
         <v>43678</v>
       </c>
       <c r="Y18">
+        <v>136824652.42602998</v>
+      </c>
+      <c r="Z18">
+        <v>105091014.61353</v>
+      </c>
+      <c r="AA18">
+        <v>32038396.348509997</v>
+      </c>
+      <c r="AB18">
+        <v>10856599.092999998</v>
+      </c>
+      <c r="AC18">
+        <v>8892798.4418499991</v>
+      </c>
+      <c r="AD18">
+        <v>31733637.812499996</v>
+      </c>
+      <c r="AE18">
+        <v>101529186.76170999</v>
+      </c>
+      <c r="AF18">
+        <v>0.74432622745300714</v>
+      </c>
+      <c r="AH18">
+        <v>47759465.986239992</v>
+      </c>
+      <c r="AI18">
+        <v>89720.722674830889</v>
+      </c>
+      <c r="AJ18">
+        <v>32.093271293100841</v>
+      </c>
+      <c r="AK18">
+        <v>57821.527741730381</v>
+      </c>
+      <c r="AL18">
+        <v>20.682869253319993</v>
+      </c>
+      <c r="AM18">
         <v>0</v>
       </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>186.20104799999999</v>
-      </c>
-      <c r="AI18">
-        <v>100635046.138032</v>
-      </c>
-      <c r="AJ18">
-        <v>71185473.206265301</v>
-      </c>
-      <c r="AK18">
-        <v>53901658.728683501</v>
-      </c>
-      <c r="AL18">
-        <v>11785222.0620094</v>
-      </c>
-      <c r="AM18">
-        <v>5443201.2855724003</v>
-      </c>
       <c r="AN18">
-        <v>14254232.546941901</v>
+        <v>1525.0061339999997</v>
       </c>
       <c r="AO18">
         <v>85263654.960468993</v>
@@ -2718,49 +2718,49 @@
         <v>43709</v>
       </c>
       <c r="Y19">
+        <v>148496324.24811998</v>
+      </c>
+      <c r="Z19">
+        <v>116420426.55065</v>
+      </c>
+      <c r="AA19">
+        <v>36031186.921829998</v>
+      </c>
+      <c r="AB19">
+        <v>11624726.260409998</v>
+      </c>
+      <c r="AC19">
+        <v>9449057.30449</v>
+      </c>
+      <c r="AD19">
+        <v>32075897.697469998</v>
+      </c>
+      <c r="AE19">
+        <v>109889124.74555999</v>
+      </c>
+      <c r="AF19">
+        <v>0.74230617533446475</v>
+      </c>
+      <c r="AH19">
+        <v>50053434.021820001</v>
+      </c>
+      <c r="AI19">
+        <v>87233.622469832917</v>
+      </c>
+      <c r="AJ19">
+        <v>31.177828752167322</v>
+      </c>
+      <c r="AK19">
+        <v>57254.750851593664</v>
+      </c>
+      <c r="AL19">
+        <v>20.463197179691907</v>
+      </c>
+      <c r="AM19">
         <v>0</v>
       </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>177.27699999999999</v>
-      </c>
-      <c r="AI19">
-        <v>100635046.138032</v>
-      </c>
-      <c r="AJ19">
-        <v>71185473.206265301</v>
-      </c>
-      <c r="AK19">
-        <v>53901658.728683501</v>
-      </c>
-      <c r="AL19">
-        <v>11785222.0620094</v>
-      </c>
-      <c r="AM19">
-        <v>5443201.2855724003</v>
-      </c>
       <c r="AN19">
-        <v>14254232.546941901</v>
+        <v>1702.2831339999998</v>
       </c>
       <c r="AO19">
         <v>85263654.960468993</v>
@@ -2804,49 +2804,49 @@
         <v>43739</v>
       </c>
       <c r="Y20">
+        <v>163621659.11115998</v>
+      </c>
+      <c r="Z20">
+        <v>127597085.97706001</v>
+      </c>
+      <c r="AA20">
+        <v>40100344.534630001</v>
+      </c>
+      <c r="AB20">
+        <v>12818575.068639997</v>
+      </c>
+      <c r="AC20">
+        <v>10129906.87023</v>
+      </c>
+      <c r="AD20">
+        <v>36024573.134099998</v>
+      </c>
+      <c r="AE20">
+        <v>121087621.76567997</v>
+      </c>
+      <c r="AF20">
+        <v>0.74250859343731845</v>
+      </c>
+      <c r="AH20">
+        <v>56009122.855439998</v>
+      </c>
+      <c r="AI20">
+        <v>86950.88162148415</v>
+      </c>
+      <c r="AJ20">
+        <v>30.901105708708748</v>
+      </c>
+      <c r="AK20">
+        <v>56616.726905398486</v>
+      </c>
+      <c r="AL20">
+        <v>20.120778885265903</v>
+      </c>
+      <c r="AM20">
         <v>0</v>
       </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>179.488</v>
-      </c>
-      <c r="AI20">
-        <v>100635046.138032</v>
-      </c>
-      <c r="AJ20">
-        <v>71185473.206265301</v>
-      </c>
-      <c r="AK20">
-        <v>53901658.728683501</v>
-      </c>
-      <c r="AL20">
-        <v>11785222.0620094</v>
-      </c>
-      <c r="AM20">
-        <v>5443201.2855724003</v>
-      </c>
       <c r="AN20">
-        <v>14254232.546941901</v>
+        <v>1881.7711339999998</v>
       </c>
       <c r="AO20">
         <v>85263654.960468993</v>
